--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,30 +46,27 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -82,109 +79,109 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>gt</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>sure</t>
   </si>
 </sst>
 </file>
@@ -550,10 +547,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -629,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -653,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -661,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8287671232876712</v>
+        <v>0.815068493150685</v>
       </c>
       <c r="C4">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D4">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -703,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -711,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8108108108108109</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -729,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5">
-        <v>0.95</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -753,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -761,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7567567567567568</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -779,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>344</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>344</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -803,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -811,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C7">
         <v>26</v>
@@ -829,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -853,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -861,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6296296296296297</v>
+        <v>0.5661375661375662</v>
       </c>
       <c r="C8">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D8">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -879,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -903,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -911,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5523255813953488</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C9">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>285</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -929,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9">
-        <v>0.9033942558746736</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L9">
-        <v>346</v>
+        <v>125</v>
       </c>
       <c r="M9">
-        <v>346</v>
+        <v>125</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -953,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -961,38 +958,38 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4915254237288136</v>
+        <v>0.5193798449612403</v>
       </c>
       <c r="C10">
+        <v>268</v>
+      </c>
+      <c r="D10">
+        <v>268</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>248</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L10">
         <v>29</v>
       </c>
-      <c r="D10">
+      <c r="M10">
         <v>29</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>30</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10">
-        <v>0.9017857142857143</v>
-      </c>
-      <c r="L10">
-        <v>101</v>
-      </c>
-      <c r="M10">
-        <v>101</v>
-      </c>
       <c r="N10">
         <v>1</v>
       </c>
@@ -1003,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1011,37 +1008,37 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4901960784313725</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C11">
+        <v>26</v>
+      </c>
+      <c r="D11">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>25</v>
       </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>26</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K11">
-        <v>0.890625</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L11">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="M11">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1053,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1061,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.36</v>
+        <v>0.3557046979865772</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1079,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12">
-        <v>0.8888888888888888</v>
+        <v>0.8671875</v>
       </c>
       <c r="L12">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="M12">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1103,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1111,13 +1108,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2684563758389262</v>
+        <v>0.1547619047619048</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1129,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.8837209302325582</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1153,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1161,37 +1158,37 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1388888888888889</v>
+        <v>0.1340482573726542</v>
       </c>
       <c r="C14">
+        <v>50</v>
+      </c>
+      <c r="D14">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>323</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14">
-        <v>35</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>217</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="K14">
-        <v>0.8802816901408451</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1203,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1211,37 +1208,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.06702412868632708</v>
+        <v>0.01487229227287423</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>348</v>
+        <v>3047</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K15">
-        <v>0.8793103448275862</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L15">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1253,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1261,167 +1258,191 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.01033925686591276</v>
+        <v>0.01228733459357278</v>
       </c>
       <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>53</v>
+      </c>
+      <c r="E16">
+        <v>0.51</v>
+      </c>
+      <c r="F16">
+        <v>0.49</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>2090</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.8375</v>
+      </c>
+      <c r="L16">
+        <v>134</v>
+      </c>
+      <c r="M16">
+        <v>134</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.009220985691573928</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>85</v>
+      </c>
+      <c r="E17">
+        <v>0.66</v>
+      </c>
+      <c r="F17">
+        <v>0.34</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3116</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17">
+        <v>0.813953488372093</v>
+      </c>
+      <c r="L17">
+        <v>35</v>
+      </c>
+      <c r="M17">
+        <v>35</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="J18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L18">
+        <v>51</v>
+      </c>
+      <c r="M18">
+        <v>51</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19">
+        <v>0.8055555555555556</v>
+      </c>
+      <c r="L19">
+        <v>29</v>
+      </c>
+      <c r="M19">
+        <v>29</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>0.8</v>
+      </c>
+      <c r="L20">
         <v>32</v>
       </c>
-      <c r="D16">
-        <v>44</v>
-      </c>
-      <c r="E16">
-        <v>0.27</v>
-      </c>
-      <c r="F16">
-        <v>0.73</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>3063</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16">
-        <v>0.8723404255319149</v>
-      </c>
-      <c r="L16">
-        <v>41</v>
-      </c>
-      <c r="M16">
-        <v>41</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
+      <c r="M20">
+        <v>32</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21">
+        <v>0.7708333333333334</v>
+      </c>
+      <c r="L21">
         <v>37</v>
       </c>
-      <c r="K17">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L17">
-        <v>70</v>
-      </c>
-      <c r="M17">
-        <v>70</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.85</v>
-      </c>
-      <c r="L18">
-        <v>136</v>
-      </c>
-      <c r="M18">
-        <v>136</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.839622641509434</v>
-      </c>
-      <c r="L19">
-        <v>89</v>
-      </c>
-      <c r="M19">
-        <v>89</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.8125</v>
-      </c>
-      <c r="L20">
-        <v>39</v>
-      </c>
-      <c r="M20">
-        <v>39</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.78</v>
-      </c>
-      <c r="L21">
-        <v>39</v>
-      </c>
       <c r="M21">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1436,304 +1457,304 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="10:17">
+    <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
-        <v>0.7619047619047619</v>
+        <v>0.7264705882352941</v>
       </c>
       <c r="L22">
+        <v>247</v>
+      </c>
+      <c r="M22">
+        <v>247</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="J23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23">
+        <v>0.7084745762711865</v>
+      </c>
+      <c r="L23">
+        <v>209</v>
+      </c>
+      <c r="M23">
+        <v>209</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="J24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24">
+        <v>0.698744769874477</v>
+      </c>
+      <c r="L24">
+        <v>167</v>
+      </c>
+      <c r="M24">
+        <v>167</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="J25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L25">
+        <v>64</v>
+      </c>
+      <c r="M25">
+        <v>64</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="J26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26">
+        <v>0.6615384615384615</v>
+      </c>
+      <c r="L26">
+        <v>43</v>
+      </c>
+      <c r="M26">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="M22">
-        <v>48</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
-      <c r="J23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23">
-        <v>0.7428571428571429</v>
-      </c>
-      <c r="L23">
+      <c r="K27">
+        <v>0.6404494382022472</v>
+      </c>
+      <c r="L27">
+        <v>57</v>
+      </c>
+      <c r="M27">
+        <v>57</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28">
+        <v>0.64</v>
+      </c>
+      <c r="L28">
+        <v>32</v>
+      </c>
+      <c r="M28">
+        <v>32</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29">
+        <v>0.6285714285714286</v>
+      </c>
+      <c r="L29">
+        <v>44</v>
+      </c>
+      <c r="M29">
+        <v>44</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
         <v>26</v>
       </c>
-      <c r="M23">
-        <v>26</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
-      <c r="J24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K24">
-        <v>0.7235294117647059</v>
-      </c>
-      <c r="L24">
-        <v>246</v>
-      </c>
-      <c r="M24">
-        <v>246</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="10:17">
-      <c r="J25" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>0.7201365187713311</v>
-      </c>
-      <c r="L25">
-        <v>211</v>
-      </c>
-      <c r="M25">
-        <v>213</v>
-      </c>
-      <c r="N25">
-        <v>0.99</v>
-      </c>
-      <c r="O25">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
-      <c r="J26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K26">
-        <v>0.702928870292887</v>
-      </c>
-      <c r="L26">
-        <v>168</v>
-      </c>
-      <c r="M26">
-        <v>168</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.6808510638297872</v>
-      </c>
-      <c r="L27">
-        <v>64</v>
-      </c>
-      <c r="M27">
-        <v>64</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0.6274509803921569</v>
+      </c>
+      <c r="L30">
+        <v>32</v>
+      </c>
+      <c r="M30">
+        <v>32</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="L31">
+        <v>40</v>
+      </c>
+      <c r="M31">
+        <v>40</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="J32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K32">
+        <v>0.4736842105263158</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.676923076923077</v>
-      </c>
-      <c r="L28">
-        <v>44</v>
-      </c>
-      <c r="M28">
-        <v>44</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.675</v>
-      </c>
-      <c r="L29">
-        <v>27</v>
-      </c>
-      <c r="M29">
-        <v>27</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.6714285714285714</v>
-      </c>
-      <c r="L30">
-        <v>47</v>
-      </c>
-      <c r="M30">
-        <v>47</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K31">
-        <v>0.6629213483146067</v>
-      </c>
-      <c r="L31">
-        <v>59</v>
-      </c>
-      <c r="M31">
-        <v>59</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
-      <c r="J32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K32">
-        <v>0.6274509803921569</v>
-      </c>
-      <c r="L32">
-        <v>32</v>
-      </c>
-      <c r="M32">
-        <v>32</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>19</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1745,85 +1766,85 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K34">
-        <v>0.5068493150684932</v>
+        <v>0.421875</v>
       </c>
       <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>27</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
         <v>37</v>
-      </c>
-      <c r="M34">
-        <v>37</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="K35">
-        <v>0.5</v>
+        <v>0.01765447667087012</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M35">
-        <v>39</v>
+        <v>85</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.66</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="K36">
-        <v>0.01066834013178538</v>
+        <v>0.01275389702409069</v>
       </c>
       <c r="L36">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M36">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N36">
-        <v>0.71</v>
+        <v>0.51</v>
       </c>
       <c r="O36">
-        <v>0.29</v>
+        <v>0.49</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>3153</v>
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
